--- a/experiment_results/SBFL_ONLY/GPL/1Bug.xlsx
+++ b/experiment_results/SBFL_ONLY/GPL/1Bug.xlsx
@@ -28,7 +28,7 @@
     <sheet name="Dice" sheetId="19" r:id="rId19"/>
     <sheet name="Humman" sheetId="20" r:id="rId20"/>
     <sheet name="Wong2" sheetId="21" r:id="rId21"/>
-    <sheet name="Wong3" sheetId="22" r:id="rId22"/>
+    <sheet name="Euclid" sheetId="22" r:id="rId22"/>
     <sheet name="Zoltar" sheetId="23" r:id="rId23"/>
     <sheet name="Rogot2" sheetId="24" r:id="rId24"/>
     <sheet name="Hamming" sheetId="25" r:id="rId25"/>
@@ -26298,10 +26298,10 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>521</v>
       </c>
       <c r="D2">
-        <v>0.2070393374741201</v>
+        <v>53.93374741200828</v>
       </c>
       <c r="E2">
         <v>966</v>
@@ -26315,10 +26315,10 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D3">
-        <v>0.2070393374741201</v>
+        <v>1.656314699792961</v>
       </c>
       <c r="E3">
         <v>966</v>
@@ -26332,10 +26332,10 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>109</v>
+        <v>793</v>
       </c>
       <c r="D4">
-        <v>11.28364389233954</v>
+        <v>82.09109730848861</v>
       </c>
       <c r="E4">
         <v>966</v>
@@ -26349,10 +26349,10 @@
         <v>12</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>802</v>
       </c>
       <c r="D5">
-        <v>0.10351966873706</v>
+        <v>83.02277432712215</v>
       </c>
       <c r="E5">
         <v>966</v>
@@ -26366,10 +26366,10 @@
         <v>12</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>648</v>
       </c>
       <c r="D6">
-        <v>0.10351966873706</v>
+        <v>67.08074534161491</v>
       </c>
       <c r="E6">
         <v>966</v>
@@ -26383,10 +26383,10 @@
         <v>12</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>740</v>
       </c>
       <c r="D7">
-        <v>0.10351966873706</v>
+        <v>76.60455486542443</v>
       </c>
       <c r="E7">
         <v>966</v>
@@ -26400,10 +26400,10 @@
         <v>16</v>
       </c>
       <c r="C8">
-        <v>3</v>
+        <v>430</v>
       </c>
       <c r="D8">
-        <v>0.3105590062111801</v>
+        <v>44.51345755693582</v>
       </c>
       <c r="E8">
         <v>966</v>
@@ -26417,10 +26417,10 @@
         <v>18</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>205</v>
       </c>
       <c r="D9">
-        <v>0.3105590062111801</v>
+        <v>21.22153209109731</v>
       </c>
       <c r="E9">
         <v>966</v>
@@ -26434,10 +26434,10 @@
         <v>20</v>
       </c>
       <c r="C10">
-        <v>5</v>
+        <v>551</v>
       </c>
       <c r="D10">
-        <v>0.5175983436853002</v>
+        <v>57.03933747412007</v>
       </c>
       <c r="E10">
         <v>966</v>
@@ -26451,10 +26451,10 @@
         <v>22</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>731</v>
       </c>
       <c r="D11">
-        <v>0.10351966873706</v>
+        <v>75.67287784679088</v>
       </c>
       <c r="E11">
         <v>966</v>
@@ -26468,10 +26468,10 @@
         <v>24</v>
       </c>
       <c r="C12">
-        <v>5</v>
+        <v>553</v>
       </c>
       <c r="D12">
-        <v>0.5175983436853002</v>
+        <v>57.2463768115942</v>
       </c>
       <c r="E12">
         <v>966</v>
@@ -26485,10 +26485,10 @@
         <v>26</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>677</v>
       </c>
       <c r="D13">
-        <v>0.10351966873706</v>
+        <v>70.08281573498965</v>
       </c>
       <c r="E13">
         <v>966</v>
@@ -26502,10 +26502,10 @@
         <v>28</v>
       </c>
       <c r="C14">
-        <v>3</v>
+        <v>116</v>
       </c>
       <c r="D14">
-        <v>0.3105590062111801</v>
+        <v>12.00828157349896</v>
       </c>
       <c r="E14">
         <v>966</v>
@@ -26519,10 +26519,10 @@
         <v>30</v>
       </c>
       <c r="C15">
-        <v>24</v>
+        <v>806</v>
       </c>
       <c r="D15">
-        <v>2.484472049689441</v>
+        <v>83.43685300207039</v>
       </c>
       <c r="E15">
         <v>966</v>
@@ -26536,10 +26536,10 @@
         <v>32</v>
       </c>
       <c r="C16">
-        <v>4</v>
+        <v>921</v>
       </c>
       <c r="D16">
-        <v>0.4140786749482402</v>
+        <v>95.34161490683229</v>
       </c>
       <c r="E16">
         <v>966</v>
@@ -26570,10 +26570,10 @@
         <v>36</v>
       </c>
       <c r="C18">
-        <v>2</v>
+        <v>137</v>
       </c>
       <c r="D18">
-        <v>0.2070393374741201</v>
+        <v>14.18219461697723</v>
       </c>
       <c r="E18">
         <v>966</v>
@@ -26587,10 +26587,10 @@
         <v>38</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>218</v>
       </c>
       <c r="D19">
-        <v>0.10351966873706</v>
+        <v>22.56728778467909</v>
       </c>
       <c r="E19">
         <v>966</v>
@@ -26604,10 +26604,10 @@
         <v>40</v>
       </c>
       <c r="C20">
-        <v>170</v>
+        <v>775</v>
       </c>
       <c r="D20">
-        <v>17.59834368530021</v>
+        <v>80.22774327122153</v>
       </c>
       <c r="E20">
         <v>966</v>
@@ -26621,10 +26621,10 @@
         <v>42</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>449</v>
       </c>
       <c r="D21">
-        <v>0.10351966873706</v>
+        <v>46.48033126293996</v>
       </c>
       <c r="E21">
         <v>966</v>
@@ -26638,10 +26638,10 @@
         <v>12</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>820</v>
       </c>
       <c r="D22">
-        <v>0.10351966873706</v>
+        <v>84.88612836438924</v>
       </c>
       <c r="E22">
         <v>966</v>
@@ -26655,10 +26655,10 @@
         <v>45</v>
       </c>
       <c r="C23">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="D23">
-        <v>0.3105590062111801</v>
+        <v>1.966873706004141</v>
       </c>
       <c r="E23">
         <v>966</v>
@@ -26672,10 +26672,10 @@
         <v>12</v>
       </c>
       <c r="C24">
-        <v>1</v>
+        <v>690</v>
       </c>
       <c r="D24">
-        <v>0.10351966873706</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="E24">
         <v>966</v>
@@ -26706,10 +26706,10 @@
         <v>26</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="D26">
-        <v>0.10351966873706</v>
+        <v>51.75983436853002</v>
       </c>
       <c r="E26">
         <v>966</v>
@@ -26740,10 +26740,10 @@
         <v>6</v>
       </c>
       <c r="C28">
-        <v>2</v>
+        <v>228</v>
       </c>
       <c r="D28">
-        <v>0.2070393374741201</v>
+        <v>23.60248447204969</v>
       </c>
       <c r="E28">
         <v>966</v>
@@ -26757,10 +26757,10 @@
         <v>12</v>
       </c>
       <c r="C29">
-        <v>1</v>
+        <v>705</v>
       </c>
       <c r="D29">
-        <v>0.10351966873706</v>
+        <v>72.98136645962732</v>
       </c>
       <c r="E29">
         <v>966</v>
@@ -26774,10 +26774,10 @@
         <v>12</v>
       </c>
       <c r="C30">
-        <v>1</v>
+        <v>701</v>
       </c>
       <c r="D30">
-        <v>0.10351966873706</v>
+        <v>72.5672877846791</v>
       </c>
       <c r="E30">
         <v>966</v>
@@ -26791,10 +26791,10 @@
         <v>26</v>
       </c>
       <c r="C31">
-        <v>1</v>
+        <v>660</v>
       </c>
       <c r="D31">
-        <v>0.10351966873706</v>
+        <v>68.32298136645963</v>
       </c>
       <c r="E31">
         <v>966</v>
@@ -26808,10 +26808,10 @@
         <v>57</v>
       </c>
       <c r="C32">
-        <v>3</v>
+        <v>351</v>
       </c>
       <c r="D32">
-        <v>0.3105590062111801</v>
+        <v>36.33540372670808</v>
       </c>
       <c r="E32">
         <v>966</v>
@@ -26825,10 +26825,10 @@
         <v>59</v>
       </c>
       <c r="C33">
-        <v>7</v>
+        <v>393</v>
       </c>
       <c r="D33">
-        <v>0.7246376811594203</v>
+        <v>40.6832298136646</v>
       </c>
       <c r="E33">
         <v>966</v>
@@ -26842,10 +26842,10 @@
         <v>12</v>
       </c>
       <c r="C34">
-        <v>1</v>
+        <v>744</v>
       </c>
       <c r="D34">
-        <v>0.10351966873706</v>
+        <v>77.01863354037268</v>
       </c>
       <c r="E34">
         <v>966</v>
@@ -26859,10 +26859,10 @@
         <v>12</v>
       </c>
       <c r="C35">
-        <v>2</v>
+        <v>826</v>
       </c>
       <c r="D35">
-        <v>0.2070393374741201</v>
+        <v>85.50724637681159</v>
       </c>
       <c r="E35">
         <v>966</v>
@@ -26876,10 +26876,10 @@
         <v>12</v>
       </c>
       <c r="C36">
-        <v>1</v>
+        <v>826</v>
       </c>
       <c r="D36">
-        <v>0.10351966873706</v>
+        <v>85.50724637681159</v>
       </c>
       <c r="E36">
         <v>966</v>
@@ -26893,10 +26893,10 @@
         <v>48</v>
       </c>
       <c r="C37">
-        <v>4</v>
+        <v>878</v>
       </c>
       <c r="D37">
-        <v>0.4140786749482402</v>
+        <v>90.89026915113871</v>
       </c>
       <c r="E37">
         <v>966</v>
@@ -26910,10 +26910,10 @@
         <v>16</v>
       </c>
       <c r="C38">
-        <v>4</v>
+        <v>444</v>
       </c>
       <c r="D38">
-        <v>0.4140786749482402</v>
+        <v>45.96273291925466</v>
       </c>
       <c r="E38">
         <v>966</v>
@@ -26927,10 +26927,10 @@
         <v>66</v>
       </c>
       <c r="C39">
-        <v>6</v>
+        <v>374</v>
       </c>
       <c r="D39">
-        <v>0.6211180124223602</v>
+        <v>38.71635610766045</v>
       </c>
       <c r="E39">
         <v>966</v>
@@ -26961,10 +26961,10 @@
         <v>70</v>
       </c>
       <c r="C41">
-        <v>2</v>
+        <v>188</v>
       </c>
       <c r="D41">
-        <v>0.2070393374741201</v>
+        <v>19.46169772256729</v>
       </c>
       <c r="E41">
         <v>966</v>
@@ -26978,10 +26978,10 @@
         <v>59</v>
       </c>
       <c r="C42">
-        <v>7</v>
+        <v>367</v>
       </c>
       <c r="D42">
-        <v>0.7246376811594203</v>
+        <v>37.99171842650104</v>
       </c>
       <c r="E42">
         <v>966</v>
@@ -26995,10 +26995,10 @@
         <v>73</v>
       </c>
       <c r="C43">
-        <v>2</v>
+        <v>374</v>
       </c>
       <c r="D43">
-        <v>0.2070393374741201</v>
+        <v>38.71635610766045</v>
       </c>
       <c r="E43">
         <v>966</v>
@@ -27012,10 +27012,10 @@
         <v>70</v>
       </c>
       <c r="C44">
-        <v>100</v>
+        <v>531</v>
       </c>
       <c r="D44">
-        <v>10.351966873706</v>
+        <v>54.96894409937888</v>
       </c>
       <c r="E44">
         <v>966</v>
@@ -27029,10 +27029,10 @@
         <v>40</v>
       </c>
       <c r="C45">
-        <v>3</v>
+        <v>727</v>
       </c>
       <c r="D45">
-        <v>0.3105590062111801</v>
+        <v>75.25879917184265</v>
       </c>
       <c r="E45">
         <v>966</v>
@@ -27046,10 +27046,10 @@
         <v>77</v>
       </c>
       <c r="C46">
-        <v>3</v>
+        <v>146</v>
       </c>
       <c r="D46">
-        <v>0.3105590062111801</v>
+        <v>15.11387163561077</v>
       </c>
       <c r="E46">
         <v>966</v>
@@ -27063,10 +27063,10 @@
         <v>79</v>
       </c>
       <c r="C47">
-        <v>6</v>
+        <v>372</v>
       </c>
       <c r="D47">
-        <v>0.6211180124223602</v>
+        <v>38.50931677018634</v>
       </c>
       <c r="E47">
         <v>966</v>
@@ -27080,10 +27080,10 @@
         <v>73</v>
       </c>
       <c r="C48">
-        <v>2</v>
+        <v>872</v>
       </c>
       <c r="D48">
-        <v>0.2070393374741201</v>
+        <v>90.26915113871635</v>
       </c>
       <c r="E48">
         <v>966</v>
@@ -27097,10 +27097,10 @@
         <v>12</v>
       </c>
       <c r="C49">
-        <v>1</v>
+        <v>752</v>
       </c>
       <c r="D49">
-        <v>0.10351966873706</v>
+        <v>77.84679089026915</v>
       </c>
       <c r="E49">
         <v>966</v>
@@ -27114,10 +27114,10 @@
         <v>83</v>
       </c>
       <c r="C50">
-        <v>6</v>
+        <v>887</v>
       </c>
       <c r="D50">
-        <v>0.6211180124223602</v>
+        <v>91.82194616977226</v>
       </c>
       <c r="E50">
         <v>966</v>
@@ -27131,10 +27131,10 @@
         <v>26</v>
       </c>
       <c r="C51">
-        <v>1</v>
+        <v>623</v>
       </c>
       <c r="D51">
-        <v>0.10351966873706</v>
+        <v>64.49275362318841</v>
       </c>
       <c r="E51">
         <v>966</v>
@@ -27148,10 +27148,10 @@
         <v>86</v>
       </c>
       <c r="C52">
-        <v>3</v>
+        <v>721</v>
       </c>
       <c r="D52">
-        <v>0.3105590062111801</v>
+        <v>74.63768115942028</v>
       </c>
       <c r="E52">
         <v>966</v>
@@ -27165,10 +27165,10 @@
         <v>88</v>
       </c>
       <c r="C53">
-        <v>2</v>
+        <v>747</v>
       </c>
       <c r="D53">
-        <v>0.2070393374741201</v>
+        <v>77.32919254658384</v>
       </c>
       <c r="E53">
         <v>966</v>
@@ -27182,10 +27182,10 @@
         <v>26</v>
       </c>
       <c r="C54">
-        <v>1</v>
+        <v>468</v>
       </c>
       <c r="D54">
-        <v>0.10351966873706</v>
+        <v>48.4472049689441</v>
       </c>
       <c r="E54">
         <v>966</v>
@@ -27199,10 +27199,10 @@
         <v>91</v>
       </c>
       <c r="C55">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="D55">
-        <v>0.2070393374741201</v>
+        <v>2.795031055900621</v>
       </c>
       <c r="E55">
         <v>966</v>
@@ -27216,10 +27216,10 @@
         <v>93</v>
       </c>
       <c r="C56">
-        <v>1</v>
+        <v>281</v>
       </c>
       <c r="D56">
-        <v>0.10351966873706</v>
+        <v>29.08902691511387</v>
       </c>
       <c r="E56">
         <v>966</v>
@@ -27233,10 +27233,10 @@
         <v>70</v>
       </c>
       <c r="C57">
-        <v>8</v>
+        <v>473</v>
       </c>
       <c r="D57">
-        <v>0.8281573498964804</v>
+        <v>48.9648033126294</v>
       </c>
       <c r="E57">
         <v>966</v>
@@ -27250,10 +27250,10 @@
         <v>12</v>
       </c>
       <c r="C58">
-        <v>1</v>
+        <v>752</v>
       </c>
       <c r="D58">
-        <v>0.10351966873706</v>
+        <v>77.84679089026915</v>
       </c>
       <c r="E58">
         <v>966</v>
@@ -27267,10 +27267,10 @@
         <v>26</v>
       </c>
       <c r="C59">
-        <v>2</v>
+        <v>655</v>
       </c>
       <c r="D59">
-        <v>0.2070393374741201</v>
+        <v>67.80538302277432</v>
       </c>
       <c r="E59">
         <v>966</v>
@@ -27284,10 +27284,10 @@
         <v>12</v>
       </c>
       <c r="C60">
-        <v>1</v>
+        <v>769</v>
       </c>
       <c r="D60">
-        <v>0.10351966873706</v>
+        <v>79.60662525879917</v>
       </c>
       <c r="E60">
         <v>966</v>
@@ -27301,10 +27301,10 @@
         <v>99</v>
       </c>
       <c r="C61">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D61">
-        <v>0.2070393374741201</v>
+        <v>1.34575569358178</v>
       </c>
       <c r="E61">
         <v>966</v>
@@ -27318,10 +27318,10 @@
         <v>12</v>
       </c>
       <c r="C62">
-        <v>2</v>
+        <v>752</v>
       </c>
       <c r="D62">
-        <v>0.2070393374741201</v>
+        <v>77.84679089026915</v>
       </c>
       <c r="E62">
         <v>966</v>
@@ -27352,10 +27352,10 @@
         <v>12</v>
       </c>
       <c r="C64">
-        <v>1</v>
+        <v>768</v>
       </c>
       <c r="D64">
-        <v>0.10351966873706</v>
+        <v>79.50310559006211</v>
       </c>
       <c r="E64">
         <v>966</v>
@@ -27369,10 +27369,10 @@
         <v>104</v>
       </c>
       <c r="C65">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D65">
-        <v>0.3105590062111801</v>
+        <v>1.449275362318841</v>
       </c>
       <c r="E65">
         <v>966</v>
@@ -27386,10 +27386,10 @@
         <v>106</v>
       </c>
       <c r="C66">
-        <v>78</v>
+        <v>536</v>
       </c>
       <c r="D66">
-        <v>8.074534161490684</v>
+        <v>55.48654244306418</v>
       </c>
       <c r="E66">
         <v>966</v>
@@ -27403,10 +27403,10 @@
         <v>108</v>
       </c>
       <c r="C67">
-        <v>2</v>
+        <v>343</v>
       </c>
       <c r="D67">
-        <v>0.2070393374741201</v>
+        <v>35.50724637681159</v>
       </c>
       <c r="E67">
         <v>966</v>
@@ -27420,10 +27420,10 @@
         <v>26</v>
       </c>
       <c r="C68">
-        <v>1</v>
+        <v>395</v>
       </c>
       <c r="D68">
-        <v>0.10351966873706</v>
+        <v>40.89026915113871</v>
       </c>
       <c r="E68">
         <v>966</v>
@@ -27437,10 +27437,10 @@
         <v>34</v>
       </c>
       <c r="C69">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D69">
-        <v>0.2070393374741201</v>
+        <v>1.34575569358178</v>
       </c>
       <c r="E69">
         <v>966</v>
@@ -27454,10 +27454,10 @@
         <v>112</v>
       </c>
       <c r="C70">
-        <v>2</v>
+        <v>620</v>
       </c>
       <c r="D70">
-        <v>0.2070393374741201</v>
+        <v>64.18219461697723</v>
       </c>
       <c r="E70">
         <v>966</v>
@@ -27471,10 +27471,10 @@
         <v>106</v>
       </c>
       <c r="C71">
-        <v>2</v>
+        <v>171</v>
       </c>
       <c r="D71">
-        <v>0.2070393374741201</v>
+        <v>17.70186335403727</v>
       </c>
       <c r="E71">
         <v>966</v>
@@ -27488,10 +27488,10 @@
         <v>12</v>
       </c>
       <c r="C72">
-        <v>1</v>
+        <v>721</v>
       </c>
       <c r="D72">
-        <v>0.10351966873706</v>
+        <v>74.63768115942028</v>
       </c>
       <c r="E72">
         <v>966</v>
@@ -27505,10 +27505,10 @@
         <v>116</v>
       </c>
       <c r="C73">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D73">
-        <v>0.2063983488132095</v>
+        <v>1.341589267285862</v>
       </c>
       <c r="E73">
         <v>969</v>
@@ -27522,10 +27522,10 @@
         <v>106</v>
       </c>
       <c r="C74">
-        <v>42</v>
+        <v>527</v>
       </c>
       <c r="D74">
-        <v>4.347826086956522</v>
+        <v>54.55486542443064</v>
       </c>
       <c r="E74">
         <v>966</v>
@@ -27539,10 +27539,10 @@
         <v>26</v>
       </c>
       <c r="C75">
-        <v>2</v>
+        <v>638</v>
       </c>
       <c r="D75">
-        <v>0.2070393374741201</v>
+        <v>66.0455486542443</v>
       </c>
       <c r="E75">
         <v>966</v>
@@ -27556,10 +27556,10 @@
         <v>26</v>
       </c>
       <c r="C76">
-        <v>1</v>
+        <v>424</v>
       </c>
       <c r="D76">
-        <v>0.10351966873706</v>
+        <v>43.89233954451346</v>
       </c>
       <c r="E76">
         <v>966</v>
@@ -27573,10 +27573,10 @@
         <v>12</v>
       </c>
       <c r="C77">
-        <v>12</v>
+        <v>834</v>
       </c>
       <c r="D77">
-        <v>1.24223602484472</v>
+        <v>86.33540372670807</v>
       </c>
       <c r="E77">
         <v>966</v>
@@ -27590,10 +27590,10 @@
         <v>122</v>
       </c>
       <c r="C78">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D78">
-        <v>0.2070393374741201</v>
+        <v>1.552795031055901</v>
       </c>
       <c r="E78">
         <v>966</v>
@@ -27607,10 +27607,10 @@
         <v>124</v>
       </c>
       <c r="C79">
-        <v>2</v>
+        <v>191</v>
       </c>
       <c r="D79">
-        <v>0.2070393374741201</v>
+        <v>19.77225672877847</v>
       </c>
       <c r="E79">
         <v>966</v>
@@ -27624,10 +27624,10 @@
         <v>68</v>
       </c>
       <c r="C80">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D80">
-        <v>0.10351966873706</v>
+        <v>1.759834368530021</v>
       </c>
       <c r="E80">
         <v>966</v>
@@ -27641,10 +27641,10 @@
         <v>12</v>
       </c>
       <c r="C81">
-        <v>1</v>
+        <v>801</v>
       </c>
       <c r="D81">
-        <v>0.10351966873706</v>
+        <v>82.91925465838509</v>
       </c>
       <c r="E81">
         <v>966</v>
@@ -27658,10 +27658,10 @@
         <v>88</v>
       </c>
       <c r="C82">
-        <v>2</v>
+        <v>579</v>
       </c>
       <c r="D82">
-        <v>0.2070393374741201</v>
+        <v>59.93788819875776</v>
       </c>
       <c r="E82">
         <v>966</v>
@@ -27692,10 +27692,10 @@
         <v>79</v>
       </c>
       <c r="C84">
-        <v>6</v>
+        <v>443</v>
       </c>
       <c r="D84">
-        <v>0.6211180124223602</v>
+        <v>45.8592132505176</v>
       </c>
       <c r="E84">
         <v>966</v>
@@ -27709,10 +27709,10 @@
         <v>132</v>
       </c>
       <c r="C85">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="D85">
-        <v>0.1034126163391934</v>
+        <v>2.688728024819028</v>
       </c>
       <c r="E85">
         <v>967</v>
@@ -27726,10 +27726,10 @@
         <v>73</v>
       </c>
       <c r="C86">
-        <v>2</v>
+        <v>852</v>
       </c>
       <c r="D86">
-        <v>0.2070393374741201</v>
+        <v>88.19875776397515</v>
       </c>
       <c r="E86">
         <v>966</v>
@@ -27743,10 +27743,10 @@
         <v>12</v>
       </c>
       <c r="C87">
-        <v>2</v>
+        <v>790</v>
       </c>
       <c r="D87">
-        <v>0.2070393374741201</v>
+        <v>81.78053830227742</v>
       </c>
       <c r="E87">
         <v>966</v>
@@ -27760,10 +27760,10 @@
         <v>136</v>
       </c>
       <c r="C88">
-        <v>3</v>
+        <v>673</v>
       </c>
       <c r="D88">
-        <v>0.3105590062111801</v>
+        <v>69.66873706004141</v>
       </c>
       <c r="E88">
         <v>966</v>
@@ -27777,10 +27777,10 @@
         <v>10</v>
       </c>
       <c r="C89">
-        <v>2</v>
+        <v>461</v>
       </c>
       <c r="D89">
-        <v>0.2070393374741201</v>
+        <v>47.72256728778468</v>
       </c>
       <c r="E89">
         <v>966</v>
@@ -27794,10 +27794,10 @@
         <v>139</v>
       </c>
       <c r="C90">
-        <v>5</v>
+        <v>319</v>
       </c>
       <c r="D90">
-        <v>0.5175983436853002</v>
+        <v>33.02277432712215</v>
       </c>
       <c r="E90">
         <v>966</v>
@@ -27811,10 +27811,10 @@
         <v>26</v>
       </c>
       <c r="C91">
-        <v>2</v>
+        <v>520</v>
       </c>
       <c r="D91">
-        <v>0.2070393374741201</v>
+        <v>53.83022774327122</v>
       </c>
       <c r="E91">
         <v>966</v>
@@ -27828,10 +27828,10 @@
         <v>142</v>
       </c>
       <c r="C92">
-        <v>3</v>
+        <v>260</v>
       </c>
       <c r="D92">
-        <v>0.3105590062111801</v>
+        <v>26.91511387163561</v>
       </c>
       <c r="E92">
         <v>966</v>
@@ -27845,10 +27845,10 @@
         <v>26</v>
       </c>
       <c r="C93">
-        <v>1</v>
+        <v>383</v>
       </c>
       <c r="D93">
-        <v>0.10351966873706</v>
+        <v>39.648033126294</v>
       </c>
       <c r="E93">
         <v>966</v>
@@ -27862,10 +27862,10 @@
         <v>145</v>
       </c>
       <c r="C94">
-        <v>20</v>
+        <v>198</v>
       </c>
       <c r="D94">
-        <v>2.068252326783868</v>
+        <v>20.47569803516029</v>
       </c>
       <c r="E94">
         <v>967</v>
@@ -27879,10 +27879,10 @@
         <v>26</v>
       </c>
       <c r="C95">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D95">
-        <v>0.10351966873706</v>
+        <v>1.34575569358178</v>
       </c>
       <c r="E95">
         <v>966</v>
@@ -27896,10 +27896,10 @@
         <v>112</v>
       </c>
       <c r="C96">
-        <v>2</v>
+        <v>542</v>
       </c>
       <c r="D96">
-        <v>0.2070393374741201</v>
+        <v>56.10766045548654</v>
       </c>
       <c r="E96">
         <v>966</v>
@@ -27913,10 +27913,10 @@
         <v>10</v>
       </c>
       <c r="C97">
-        <v>92</v>
+        <v>796</v>
       </c>
       <c r="D97">
-        <v>9.523809523809524</v>
+        <v>82.40165631469979</v>
       </c>
       <c r="E97">
         <v>966</v>
@@ -27964,10 +27964,10 @@
         <v>152</v>
       </c>
       <c r="C100">
-        <v>1</v>
+        <v>167</v>
       </c>
       <c r="D100">
-        <v>0.10351966873706</v>
+        <v>17.28778467908903</v>
       </c>
       <c r="E100">
         <v>966</v>
@@ -27981,10 +27981,10 @@
         <v>154</v>
       </c>
       <c r="C101">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D101">
-        <v>0.2068252326783868</v>
+        <v>0.4136504653567736</v>
       </c>
       <c r="E101">
         <v>967</v>
@@ -27998,10 +27998,10 @@
         <v>38</v>
       </c>
       <c r="C102">
-        <v>161</v>
+        <v>710</v>
       </c>
       <c r="D102">
-        <v>16.66666666666666</v>
+        <v>73.49896480331263</v>
       </c>
       <c r="E102">
         <v>966</v>
@@ -28049,10 +28049,10 @@
         <v>12</v>
       </c>
       <c r="C105">
-        <v>1</v>
+        <v>677</v>
       </c>
       <c r="D105">
-        <v>0.10351966873706</v>
+        <v>70.08281573498965</v>
       </c>
       <c r="E105">
         <v>966</v>
@@ -28066,10 +28066,10 @@
         <v>12</v>
       </c>
       <c r="C106">
-        <v>16</v>
+        <v>838</v>
       </c>
       <c r="D106">
-        <v>1.656314699792961</v>
+        <v>86.74948240165632</v>
       </c>
       <c r="E106">
         <v>966</v>
